--- a/Plot_tool/xlsx/DMLCT_n5_16x16.xlsx
+++ b/Plot_tool/xlsx/DMLCT_n5_16x16.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,6 +21,7 @@
     <sheet name="N8RGB" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="N6RGB" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="Trumpet" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Sailboat256" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="6">
   <si>
     <t xml:space="preserve">bpp</t>
   </si>
@@ -504,17 +505,17 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="1" sqref="B2:B14 L16"/>
+      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,16 +820,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="1" sqref="B2:B14 J6"/>
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1133,16 +1134,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="1" sqref="B2:B14 E10"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,16 +1448,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B14"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1760,17 +1761,17 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1794,7 +1795,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0.2</v>
       </c>
@@ -1816,7 +1817,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>0.25</v>
       </c>
@@ -1836,7 +1837,7 @@
         <v>4280.45336914063</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>0.3</v>
       </c>
@@ -1856,7 +1857,7 @@
         <v>4053.17517089844</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>0.35</v>
       </c>
@@ -1876,7 +1877,7 @@
         <v>3992.67974853516</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>0.4</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>3864.44213867187</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>0.45</v>
       </c>
@@ -1916,7 +1917,7 @@
         <v>3804.68487548828</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>0.5</v>
       </c>
@@ -1936,7 +1937,7 @@
         <v>3750.58917236328</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>0.55</v>
       </c>
@@ -1956,7 +1957,7 @@
         <v>3703.64807128906</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>0.6</v>
       </c>
@@ -1976,7 +1977,7 @@
         <v>3656.31951904297</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>0.65</v>
       </c>
@@ -1996,7 +1997,7 @@
         <v>3637.78100585938</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>0.7</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>3589.08850097656</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>0.75</v>
       </c>
@@ -2036,7 +2037,7 @@
         <v>3551.14575195312</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>0.8</v>
       </c>
@@ -2054,6 +2055,320 @@
       </c>
       <c r="F14" s="1" t="n">
         <v>3525.15515136719</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="12" t="n">
+        <v>195.1171875</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>23.1542808477034</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.635256015505276</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>40636.662109375</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>8769.3818359375</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="12" t="n">
+        <v>158.0078125</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>24.0876877998086</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.676607508795723</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>41978.3125</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>10163.6435546875</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="12" t="n">
+        <v>131.8359375</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>24.9817862926839</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.715418692445908</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>41119.833984375</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>10385.421875</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="12" t="n">
+        <v>112.3046875</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>25.703236450115</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.739039214542625</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>38870.068359375</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>10148.1787109375</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="12" t="n">
+        <v>97.4609375</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>26.4211194335745</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.76539256082461</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>36071.265625</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>9752.970703125</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="12" t="n">
+        <v>86.1328125</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>27.0578130085562</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.785249057446412</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>35336.41015625</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>9555.3193359375</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="12" t="n">
+        <v>76.7578125</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>27.6868337543149</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.802759539694712</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>32476.00390625</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>8901.0078125</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B9" s="12" t="n">
+        <v>68.5546875</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>28.2768364333673</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.819113821280087</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>31122</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>8389.3427734375</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="12" t="n">
+        <v>62.3046875</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>28.7883518917215</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.833357726569271</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>29874.99609375</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>8419.5126953125</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="12" t="n">
+        <v>56.4453125</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>29.3603436017251</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.84794150120442</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>28622.3125</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>8364.9150390625</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="12" t="n">
+        <v>51.7578125</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>29.8484142142208</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0.8596458999032</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>27846.55078125</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>7685.373046875</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="12" t="n">
+        <v>47.4609375</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>30.3444187173806</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0.868372637749617</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>27388.28125</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>7840.515625</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="12" t="n">
+        <v>43.9453125</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>30.8284776819509</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0.877382533047203</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>26081.8671875</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>7371.8447265625</v>
       </c>
     </row>
   </sheetData>
@@ -2075,16 +2390,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B14"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2389,16 +2704,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="B2:B14 C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2703,16 +3018,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="B2:B14 C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3017,16 +3332,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="1" sqref="B2:B14 F11"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3331,16 +3646,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B2:B14"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3645,16 +3960,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="1" sqref="B2:B14 J14"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3959,16 +4274,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="B2:B14 C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4273,16 +4588,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="1" sqref="B2:B14 E11"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
